--- a/measures/TimeMeasure.xlsx
+++ b/measures/TimeMeasure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisderonjic/Uni/RO2/measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BCCF4F-3996-D448-AAD9-31C59B368BAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688687ED-9EAA-D349-A224-ECD3C89CDA3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{7B4369E6-9C43-F54A-8D20-636CA644E48B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B4369E6-9C43-F54A-8D20-636CA644E48B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>MTZ</t>
   </si>
@@ -132,9 +132,6 @@
     <t>11.658177s</t>
   </si>
   <si>
-    <t>Time Limit</t>
-  </si>
-  <si>
     <t>503.102954s</t>
   </si>
   <si>
@@ -157,16 +154,55 @@
   </si>
   <si>
     <t>0.545755s</t>
+  </si>
+  <si>
+    <t>Time exceded</t>
+  </si>
+  <si>
+    <t>eil51</t>
+  </si>
+  <si>
+    <t>24.219728s</t>
+  </si>
+  <si>
+    <t>4.289730s</t>
+  </si>
+  <si>
+    <t>2.157424s</t>
+  </si>
+  <si>
+    <t>3.834549s</t>
+  </si>
+  <si>
+    <t>14.129834s</t>
+  </si>
+  <si>
+    <t>5.450432s</t>
+  </si>
+  <si>
+    <t>826.467900s</t>
+  </si>
+  <si>
+    <t>Time Limit: 1800</t>
+  </si>
+  <si>
+    <t>989.294905s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -509,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D6308-04FF-744E-B86F-1C8CDCA04BC1}">
-  <dimension ref="A3:G10"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +561,11 @@
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
@@ -618,8 +659,20 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -627,44 +680,71 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
+      <c r="G11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/measures/TimeMeasure.xlsx
+++ b/measures/TimeMeasure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisderonjic/Uni/RO2/measures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universita\TSP_Optimization\measures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688687ED-9EAA-D349-A224-ECD3C89CDA3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0290F43F-B6B0-49AA-A68F-0E9C9CBBC820}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B4369E6-9C43-F54A-8D20-636CA644E48B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7B4369E6-9C43-F54A-8D20-636CA644E48B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>MTZ</t>
   </si>
@@ -72,128 +72,35 @@
     <t>pr76</t>
   </si>
   <si>
-    <t>13.792864s</t>
-  </si>
-  <si>
-    <t>0.232365s</t>
-  </si>
-  <si>
-    <t>0.233644s</t>
-  </si>
-  <si>
-    <t>0.260451s</t>
-  </si>
-  <si>
-    <t>0.263197s</t>
-  </si>
-  <si>
-    <t>0.225889s</t>
-  </si>
-  <si>
-    <t>0.159348s</t>
-  </si>
-  <si>
-    <t>0.896021s</t>
-  </si>
-  <si>
-    <t>0.871990s</t>
-  </si>
-  <si>
-    <t>2.265006s</t>
-  </si>
-  <si>
-    <t>1.343967s</t>
-  </si>
-  <si>
-    <t>0.710058s</t>
-  </si>
-  <si>
-    <t>0.429394s</t>
-  </si>
-  <si>
-    <t>26.901235s</t>
-  </si>
-  <si>
-    <t>13.724570s</t>
-  </si>
-  <si>
-    <t>46.640270s</t>
-  </si>
-  <si>
-    <t>39.413381s</t>
-  </si>
-  <si>
-    <t>18.935264s</t>
-  </si>
-  <si>
-    <t>2.087567s</t>
-  </si>
-  <si>
-    <t>11.658177s</t>
-  </si>
-  <si>
-    <t>503.102954s</t>
-  </si>
-  <si>
     <t>st70</t>
   </si>
   <si>
-    <t>121.587014s</t>
-  </si>
-  <si>
-    <t>12.934815s</t>
-  </si>
-  <si>
-    <t>3.592521s</t>
-  </si>
-  <si>
-    <t>3.313892s</t>
-  </si>
-  <si>
-    <t>13.098146s</t>
-  </si>
-  <si>
-    <t>0.545755s</t>
-  </si>
-  <si>
     <t>Time exceded</t>
   </si>
   <si>
     <t>eil51</t>
   </si>
   <si>
-    <t>24.219728s</t>
-  </si>
-  <si>
-    <t>4.289730s</t>
-  </si>
-  <si>
-    <t>2.157424s</t>
-  </si>
-  <si>
-    <t>3.834549s</t>
-  </si>
-  <si>
-    <t>14.129834s</t>
-  </si>
-  <si>
-    <t>5.450432s</t>
-  </si>
-  <si>
-    <t>826.467900s</t>
-  </si>
-  <si>
     <t>Time Limit: 1800</t>
   </si>
   <si>
-    <t>989.294905s</t>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>MTZ lazy+2d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,6 +114,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,13 +139,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -545,13 +519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48D6308-04FF-744E-B86F-1C8CDCA04BC1}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
@@ -559,192 +533,232 @@
     <col min="5" max="5" width="19.1640625" customWidth="1"/>
     <col min="6" max="6" width="22.83203125" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="2">
+        <v>0.26045099999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.26319700000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.23364399999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.22588900000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.15934799999999999</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.23236499999999999</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.89602099999999996</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.87199000000000004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.2650060000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.3439669999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.71005799999999997</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.429394</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26.901235</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.72457</v>
+      </c>
+      <c r="D6" s="2">
+        <v>46.640270000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39.413381000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>18.935264</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.087567</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>826.46789999999999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>989.29490499999997</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8">
+        <v>13.792864</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B8" s="2">
+        <v>5.4504320000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.2897299999999996</v>
+      </c>
+      <c r="D8" s="2">
+        <v>14.129834000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.834549</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.1574239999999998</v>
+      </c>
+      <c r="G8" s="8">
+        <v>24.219728</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12.934815</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.3138920000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>13.098146</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.5925210000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.54575499999999999</v>
+      </c>
+      <c r="G9" s="8">
+        <v>11.658177</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="8">
+        <v>121.587014</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="12">
+        <v>503.10295400000001</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>